--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_5_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_5_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2274082.918213034</v>
+        <v>-2276168.169156723</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>46.74546526108534</v>
       </c>
       <c r="C2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.28796821707176</v>
+      </c>
+      <c r="H2" t="n">
         <v>244.5627323611424</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,16 +701,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
         <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>48.89767925718721</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>244.5627323611424</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2298410610367</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>147.4847764847949</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,40 +835,40 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>137.081565665098</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>73.52639587449775</v>
       </c>
       <c r="F5" t="n">
-        <v>263.2420339516666</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.21022140383137</v>
@@ -914,10 +914,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852153</v>
+        <v>4.097100052852072</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>102.5284487750943</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>55.72472836914152</v>
+        <v>40.66130983622782</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598919</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>77.14804664098575</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.31144901718724</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>178.34555653262</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.2032470016631</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2379639975001</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>298.0698258946601</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.8204034649566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>105.2795089281862</v>
       </c>
       <c r="I9" t="n">
-        <v>64.59913413650349</v>
+        <v>64.59913413650354</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>55.44020462292485</v>
+        <v>55.44020462292493</v>
       </c>
       <c r="S9" t="n">
-        <v>150.1902048456406</v>
+        <v>158.3051574659206</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>197.2616839408084</v>
       </c>
       <c r="U9" t="n">
         <v>225.8939983254686</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.3060592162129001</v>
       </c>
     </row>
     <row r="10">
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>163.5191263283722</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.8586706868748</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>50.66916103841883</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2860937624997</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>110.1756845282907</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.25574836862768</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20.95258429423959</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1579,16 +1579,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.8435192151916</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>124.0349741823282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>132.45600545187</v>
       </c>
       <c r="V19" t="n">
-        <v>11.84214567871211</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.37466424891438</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>48.37466424891429</v>
       </c>
       <c r="I25" t="n">
-        <v>17.93106827885206</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>152.2303518676588</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.6451927843494</v>
+        <v>139.6451927843493</v>
       </c>
       <c r="D28" t="n">
-        <v>121.0138447039339</v>
+        <v>121.0138447039338</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>117.8194197086528</v>
+        <v>117.8194197086527</v>
       </c>
       <c r="G28" t="n">
-        <v>138.8919401490991</v>
+        <v>138.891940149099</v>
       </c>
       <c r="H28" t="n">
-        <v>121.3075220051454</v>
+        <v>121.3122000532576</v>
       </c>
       <c r="I28" t="n">
-        <v>82.81761714999352</v>
+        <v>82.81761714999345</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>82.36272408951433</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>193.9459327441107</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>75.02782017771456</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>224.5360150095495</v>
       </c>
       <c r="W28" t="n">
-        <v>258.9213700223125</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>198.1080270747587</v>
+        <v>198.1080270747586</v>
       </c>
       <c r="Y28" t="n">
-        <v>190.9830250378163</v>
+        <v>190.9830250378162</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2956,13 +2956,13 @@
         <v>121.0138447039338</v>
       </c>
       <c r="E31" t="n">
-        <v>118.8323343322907</v>
+        <v>13.89057253881747</v>
       </c>
       <c r="F31" t="n">
         <v>117.8194197086527</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>138.891940149099</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.36272408951427</v>
+        <v>82.36272408951426</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>170.3191816693247</v>
       </c>
       <c r="T31" t="n">
-        <v>78.76622573720819</v>
+        <v>193.9459327441107</v>
       </c>
       <c r="U31" t="n">
-        <v>258.6357240842988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>224.5360150095495</v>
       </c>
       <c r="W31" t="n">
-        <v>258.9213700223125</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>198.1080270747586</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.9830250378163</v>
+        <v>190.9830250378162</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3992,10 +3992,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>531.3804469799117</v>
+        <v>299.789776127315</v>
       </c>
       <c r="C2" t="n">
-        <v>284.3473839888587</v>
+        <v>299.789776127315</v>
       </c>
       <c r="D2" t="n">
-        <v>284.3473839888587</v>
+        <v>299.789776127315</v>
       </c>
       <c r="E2" t="n">
-        <v>284.3473839888587</v>
+        <v>299.789776127315</v>
       </c>
       <c r="F2" t="n">
+        <v>292.8442753781115</v>
+      </c>
+      <c r="G2" t="n">
         <v>277.4018832396552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>30.36882024860223</v>
       </c>
       <c r="H2" t="n">
         <v>30.36882024860223</v>
@@ -4349,31 +4349,31 @@
         <v>978.2509294445697</v>
       </c>
       <c r="Q2" t="n">
-        <v>978.2509294445697</v>
+        <v>969.7703423957685</v>
       </c>
       <c r="R2" t="n">
-        <v>827.8051051802446</v>
+        <v>819.3245181314434</v>
       </c>
       <c r="S2" t="n">
-        <v>778.4135099709646</v>
+        <v>819.3245181314434</v>
       </c>
       <c r="T2" t="n">
-        <v>778.4135099709646</v>
+        <v>594.0404807962319</v>
       </c>
       <c r="U2" t="n">
-        <v>778.4135099709646</v>
+        <v>594.0404807962319</v>
       </c>
       <c r="V2" t="n">
-        <v>778.4135099709646</v>
+        <v>594.0404807962319</v>
       </c>
       <c r="W2" t="n">
-        <v>531.3804469799117</v>
+        <v>594.0404807962319</v>
       </c>
       <c r="X2" t="n">
-        <v>531.3804469799117</v>
+        <v>347.007417805179</v>
       </c>
       <c r="Y2" t="n">
-        <v>531.3804469799117</v>
+        <v>347.007417805179</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307.1154293218969</v>
+        <v>520.8421694212616</v>
       </c>
       <c r="C3" t="n">
-        <v>307.1154293218969</v>
+        <v>520.8421694212616</v>
       </c>
       <c r="D3" t="n">
-        <v>158.1810196606456</v>
+        <v>520.8421694212616</v>
       </c>
       <c r="E3" t="n">
-        <v>158.1810196606456</v>
+        <v>361.604714415806</v>
       </c>
       <c r="F3" t="n">
-        <v>158.1810196606456</v>
+        <v>361.604714415806</v>
       </c>
       <c r="G3" t="n">
-        <v>19.56501858889139</v>
+        <v>222.8818710904709</v>
       </c>
       <c r="H3" t="n">
-        <v>19.56501858889139</v>
+        <v>109.5898257028427</v>
       </c>
       <c r="I3" t="n">
         <v>19.56501858889139</v>
@@ -4410,49 +4410,49 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>19.56501858889139</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>251.2267644261524</v>
+        <v>377.8476075409625</v>
       </c>
       <c r="M3" t="n">
-        <v>251.2267644261524</v>
+        <v>619.9647125784935</v>
       </c>
       <c r="N3" t="n">
-        <v>481.6032601595283</v>
+        <v>736.1338244070387</v>
       </c>
       <c r="O3" t="n">
-        <v>723.7203651970593</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="P3" t="n">
-        <v>907.8577401332359</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="Q3" t="n">
         <v>978.2509294445697</v>
       </c>
       <c r="R3" t="n">
-        <v>978.2509294445697</v>
+        <v>877.5769898880285</v>
       </c>
       <c r="S3" t="n">
-        <v>978.2509294445697</v>
+        <v>877.5769898880285</v>
       </c>
       <c r="T3" t="n">
-        <v>978.2509294445697</v>
+        <v>728.6024681862154</v>
       </c>
       <c r="U3" t="n">
-        <v>750.0278363185936</v>
+        <v>728.6024681862154</v>
       </c>
       <c r="V3" t="n">
-        <v>514.8757280868508</v>
+        <v>728.6024681862154</v>
       </c>
       <c r="W3" t="n">
-        <v>514.8757280868508</v>
+        <v>728.6024681862154</v>
       </c>
       <c r="X3" t="n">
-        <v>514.8757280868508</v>
+        <v>728.6024681862154</v>
       </c>
       <c r="Y3" t="n">
-        <v>307.1154293218969</v>
+        <v>520.8421694212616</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>978.2509294445697</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>978.2509294445697</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>978.2509294445697</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>978.2509294445697</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>978.2509294445697</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>978.2509294445697</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>978.2509294445697</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>839.7847015000262</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>839.7847015000262</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>839.7847015000262</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>868.0739335605019</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>908.290085419765</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>952.984603497187</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>978.2509294445697</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>978.2509294445697</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>978.2509294445697</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>978.2509294445697</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>978.2509294445697</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T4" t="n">
-        <v>978.2509294445697</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U4" t="n">
-        <v>978.2509294445697</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V4" t="n">
-        <v>978.2509294445697</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W4" t="n">
-        <v>978.2509294445697</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X4" t="n">
-        <v>978.2509294445697</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>978.2509294445697</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>515.4619057441345</v>
+        <v>653.5783839042409</v>
       </c>
       <c r="C5" t="n">
-        <v>515.4619057441345</v>
+        <v>387.6773395086178</v>
       </c>
       <c r="D5" t="n">
-        <v>515.4619057441345</v>
+        <v>121.7762951129946</v>
       </c>
       <c r="E5" t="n">
-        <v>515.4619057441345</v>
+        <v>47.50720837107768</v>
       </c>
       <c r="F5" t="n">
-        <v>249.5608613485116</v>
+        <v>40.56170762187421</v>
       </c>
       <c r="G5" t="n">
-        <v>234.1970013446415</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="H5" t="n">
-        <v>234.1970013446415</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800419</v>
+        <v>25.19784761800413</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142361</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098024</v>
+        <v>563.3128681098027</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369329</v>
+        <v>785.5101925369335</v>
       </c>
       <c r="O5" t="n">
-        <v>950.137187388514</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806667</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R5" t="n">
-        <v>949.404046134854</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S5" t="n">
-        <v>740.4021686601945</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="T5" t="n">
-        <v>515.4619057441345</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="U5" t="n">
-        <v>515.4619057441345</v>
+        <v>653.5783839042409</v>
       </c>
       <c r="V5" t="n">
-        <v>515.4619057441345</v>
+        <v>653.5783839042409</v>
       </c>
       <c r="W5" t="n">
-        <v>515.4619057441345</v>
+        <v>653.5783839042409</v>
       </c>
       <c r="X5" t="n">
-        <v>515.4619057441345</v>
+        <v>653.5783839042409</v>
       </c>
       <c r="Y5" t="n">
-        <v>515.4619057441345</v>
+        <v>653.5783839042409</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>326.8313756947039</v>
+        <v>342.0469499703754</v>
       </c>
       <c r="C6" t="n">
-        <v>326.8313756947039</v>
+        <v>167.5939206892484</v>
       </c>
       <c r="D6" t="n">
-        <v>326.8313756947039</v>
+        <v>167.5939206892484</v>
       </c>
       <c r="E6" t="n">
         <v>167.5939206892484</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J6" t="n">
-        <v>24.9501803568321</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K6" t="n">
-        <v>24.9501803568321</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L6" t="n">
-        <v>265.5537082516946</v>
+        <v>261.6628906109959</v>
       </c>
       <c r="M6" t="n">
-        <v>339.9440834239258</v>
+        <v>522.2725042231461</v>
       </c>
       <c r="N6" t="n">
-        <v>600.5536970360757</v>
+        <v>600.5536970360766</v>
       </c>
       <c r="O6" t="n">
-        <v>860.9667611285678</v>
+        <v>860.9667611285688</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U6" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="V6" t="n">
-        <v>996.6805313933921</v>
+        <v>1011.896105669064</v>
       </c>
       <c r="W6" t="n">
-        <v>742.4431746651906</v>
+        <v>757.6587489408621</v>
       </c>
       <c r="X6" t="n">
-        <v>534.5916744596577</v>
+        <v>549.8072487353293</v>
       </c>
       <c r="Y6" t="n">
-        <v>326.8313756947039</v>
+        <v>342.0469499703754</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360296</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955239</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N7" t="n">
-        <v>150.0877739486497</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716483</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q7" t="n">
-        <v>98.98668255551287</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>798.227587826804</v>
+        <v>825.7501418182977</v>
       </c>
       <c r="C8" t="n">
-        <v>429.2650708863923</v>
+        <v>456.787624877886</v>
       </c>
       <c r="D8" t="n">
-        <v>70.99937227964183</v>
+        <v>456.787624877886</v>
       </c>
       <c r="E8" t="n">
-        <v>70.99937227964183</v>
+        <v>70.99937227964178</v>
       </c>
       <c r="F8" t="n">
-        <v>64.05387153043836</v>
+        <v>64.0538715304383</v>
       </c>
       <c r="G8" t="n">
-        <v>49.95626937293287</v>
+        <v>49.95626937293281</v>
       </c>
       <c r="H8" t="n">
-        <v>49.95626937293287</v>
+        <v>49.95626937293281</v>
       </c>
       <c r="I8" t="n">
-        <v>49.95626937293287</v>
+        <v>49.95626937293281</v>
       </c>
       <c r="J8" t="n">
-        <v>151.2334983759272</v>
+        <v>151.2334983759267</v>
       </c>
       <c r="K8" t="n">
-        <v>423.7666154858247</v>
+        <v>423.7666154858239</v>
       </c>
       <c r="L8" t="n">
-        <v>814.1446738295788</v>
+        <v>814.1446738295774</v>
       </c>
       <c r="M8" t="n">
-        <v>1265.122027009109</v>
+        <v>1265.122027009107</v>
       </c>
       <c r="N8" t="n">
-        <v>1708.764667699578</v>
+        <v>1708.764667699576</v>
       </c>
       <c r="O8" t="n">
-        <v>2082.49619524876</v>
+        <v>2082.496195248757</v>
       </c>
       <c r="P8" t="n">
-        <v>2363.79302451997</v>
+        <v>2363.793024519968</v>
       </c>
       <c r="Q8" t="n">
-        <v>2497.813468646644</v>
+        <v>2497.813468646641</v>
       </c>
       <c r="R8" t="n">
-        <v>2431.842308023222</v>
+        <v>2497.813468646641</v>
       </c>
       <c r="S8" t="n">
-        <v>2431.842308023222</v>
+        <v>2317.666441846014</v>
       </c>
       <c r="T8" t="n">
-        <v>2431.842308023222</v>
+        <v>2098.269222652415</v>
       </c>
       <c r="U8" t="n">
-        <v>2431.842308023222</v>
+        <v>1844.493501442819</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.779420679652</v>
+        <v>1513.430614099248</v>
       </c>
       <c r="W8" t="n">
-        <v>1748.010765409537</v>
+        <v>1513.430614099248</v>
       </c>
       <c r="X8" t="n">
-        <v>1374.545007148458</v>
+        <v>1212.34998188242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1184.827427890926</v>
+        <v>1212.34998188242</v>
       </c>
     </row>
     <row r="9">
@@ -4878,52 +4878,52 @@
         <v>115.2079200158657</v>
       </c>
       <c r="I9" t="n">
-        <v>49.95626937293287</v>
+        <v>49.95626937293281</v>
       </c>
       <c r="J9" t="n">
-        <v>49.95626937293287</v>
+        <v>116.5829134656357</v>
       </c>
       <c r="K9" t="n">
-        <v>290.452659377908</v>
+        <v>357.0793034706106</v>
       </c>
       <c r="L9" t="n">
-        <v>569.229392367092</v>
+        <v>729.6417010170821</v>
       </c>
       <c r="M9" t="n">
-        <v>1070.230442565945</v>
+        <v>1230.642751215935</v>
       </c>
       <c r="N9" t="n">
-        <v>1600.198513175867</v>
+        <v>1760.610821825856</v>
       </c>
       <c r="O9" t="n">
-        <v>2018.60008186619</v>
+        <v>2179.012390516179</v>
       </c>
       <c r="P9" t="n">
-        <v>2337.401159996652</v>
+        <v>2497.813468646641</v>
       </c>
       <c r="Q9" t="n">
-        <v>2497.813468646644</v>
+        <v>2497.813468646641</v>
       </c>
       <c r="R9" t="n">
-        <v>2441.81326195682</v>
+        <v>2441.813261956817</v>
       </c>
       <c r="S9" t="n">
-        <v>2290.105984334961</v>
+        <v>2281.909062496291</v>
       </c>
       <c r="T9" t="n">
-        <v>2290.105984334961</v>
+        <v>2082.654836293455</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.930228450649</v>
+        <v>1854.479080409143</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.778120218907</v>
+        <v>1619.3269721774</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.540763490705</v>
+        <v>1365.089615449199</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.689263285172</v>
+        <v>1157.238115243666</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.928964520218</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>660.0467845406955</v>
+        <v>259.5803418227243</v>
       </c>
       <c r="C10" t="n">
-        <v>494.8759498655721</v>
+        <v>259.5803418227243</v>
       </c>
       <c r="D10" t="n">
-        <v>344.7593104532364</v>
+        <v>259.5803418227243</v>
       </c>
       <c r="E10" t="n">
-        <v>196.8462168708432</v>
+        <v>259.5803418227243</v>
       </c>
       <c r="F10" t="n">
-        <v>49.95626937293287</v>
+        <v>259.5803418227243</v>
       </c>
       <c r="G10" t="n">
-        <v>49.95626937293287</v>
+        <v>259.5803418227243</v>
       </c>
       <c r="H10" t="n">
-        <v>49.95626937293287</v>
+        <v>101.1372401188104</v>
       </c>
       <c r="I10" t="n">
-        <v>49.95626937293287</v>
+        <v>101.1372401188104</v>
       </c>
       <c r="J10" t="n">
-        <v>49.95626937293287</v>
+        <v>49.95626937293281</v>
       </c>
       <c r="K10" t="n">
-        <v>97.36075951454191</v>
+        <v>97.36075951454171</v>
       </c>
       <c r="L10" t="n">
-        <v>213.5486207040356</v>
+        <v>213.5486207040353</v>
       </c>
       <c r="M10" t="n">
-        <v>346.4415526826369</v>
+        <v>346.4415526826365</v>
       </c>
       <c r="N10" t="n">
-        <v>481.6092041909482</v>
+        <v>481.6092041909475</v>
       </c>
       <c r="O10" t="n">
-        <v>590.4421123627392</v>
+        <v>590.4421123627383</v>
       </c>
       <c r="P10" t="n">
-        <v>660.0467845406955</v>
+        <v>660.0467845406945</v>
       </c>
       <c r="Q10" t="n">
-        <v>660.0467845406955</v>
+        <v>660.0467845406945</v>
       </c>
       <c r="R10" t="n">
-        <v>660.0467845406955</v>
+        <v>660.0467845406945</v>
       </c>
       <c r="S10" t="n">
-        <v>660.0467845406955</v>
+        <v>660.0467845406945</v>
       </c>
       <c r="T10" t="n">
-        <v>660.0467845406955</v>
+        <v>660.0467845406945</v>
       </c>
       <c r="U10" t="n">
-        <v>660.0467845406955</v>
+        <v>370.868912053321</v>
       </c>
       <c r="V10" t="n">
-        <v>660.0467845406955</v>
+        <v>370.868912053321</v>
       </c>
       <c r="W10" t="n">
-        <v>660.0467845406955</v>
+        <v>259.5803418227243</v>
       </c>
       <c r="X10" t="n">
-        <v>660.0467845406955</v>
+        <v>259.5803418227243</v>
       </c>
       <c r="Y10" t="n">
-        <v>660.0467845406955</v>
+        <v>259.5803418227243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>717.1440534185986</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C13" t="n">
-        <v>548.2078704906917</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D13" t="n">
-        <v>398.0912310783559</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488383</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488383</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W13" t="n">
-        <v>898.7925182488383</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X13" t="n">
-        <v>898.7925182488383</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="Y13" t="n">
-        <v>898.7925182488383</v>
+        <v>420.0340835819383</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5294,13 +5294,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>657.1994242851239</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247861</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247861</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247861</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1357418247861</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>964.1357418247861</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>838.8478891153636</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,13 +5589,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
         <v>1099.417155020476</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.3109288932102</v>
+        <v>692.5547804049819</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3747459653033</v>
+        <v>692.5547804049819</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2581065529675</v>
+        <v>542.4381409926461</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>394.525047410253</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>1141.336910446529</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.95939372345</v>
+        <v>1141.336910446529</v>
       </c>
       <c r="W19" t="n">
-        <v>1175.95939372345</v>
+        <v>1141.336910446529</v>
       </c>
       <c r="X19" t="n">
-        <v>1175.95939372345</v>
+        <v>913.347359548512</v>
       </c>
       <c r="Y19" t="n">
-        <v>1175.95939372345</v>
+        <v>692.5547804049819</v>
       </c>
     </row>
     <row r="20">
@@ -5753,16 +5753,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,7 +5786,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>496.6650364395581</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>496.6650364395581</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5975,10 +5975,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5990,7 +5990,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6069,22 +6069,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>579.0685056491546</v>
+        <v>315.0165716093182</v>
       </c>
       <c r="C25" t="n">
-        <v>410.1323227212478</v>
+        <v>146.0803886814114</v>
       </c>
       <c r="D25" t="n">
-        <v>410.1323227212478</v>
+        <v>146.0803886814114</v>
       </c>
       <c r="E25" t="n">
-        <v>262.2192291388547</v>
+        <v>146.0803886814114</v>
       </c>
       <c r="F25" t="n">
-        <v>115.3292816409444</v>
+        <v>146.0803886814114</v>
       </c>
       <c r="G25" t="n">
-        <v>115.3292816409444</v>
+        <v>146.0803886814114</v>
       </c>
       <c r="H25" t="n">
-        <v>115.3292816409444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5095496229245</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y25" t="n">
-        <v>760.7169704793944</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>570.0299571250968</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>816.7950850315608</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1124.115218311523</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.977845975555</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>826.0004616634919</v>
+        <v>826.0051869646152</v>
       </c>
       <c r="C28" t="n">
-        <v>684.9447113762703</v>
+        <v>684.9494366773937</v>
       </c>
       <c r="D28" t="n">
-        <v>562.70850460462</v>
+        <v>562.7132299057433</v>
       </c>
       <c r="E28" t="n">
-        <v>562.70850460462</v>
+        <v>562.7132299057433</v>
       </c>
       <c r="F28" t="n">
-        <v>443.6989897473949</v>
+        <v>443.7037150485183</v>
       </c>
       <c r="G28" t="n">
-        <v>303.4041007079009</v>
+        <v>303.4088260090244</v>
       </c>
       <c r="H28" t="n">
-        <v>180.871250197653</v>
+        <v>180.8712501976531</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>136.9253959553314</v>
+        <v>136.9253959553315</v>
       </c>
       <c r="K28" t="n">
-        <v>314.4364122310785</v>
+        <v>314.4364122310787</v>
       </c>
       <c r="L28" t="n">
-        <v>589.4740692733435</v>
+        <v>589.4740692733437</v>
       </c>
       <c r="M28" t="n">
-        <v>888.3664240716621</v>
+        <v>888.3664240716623</v>
       </c>
       <c r="N28" t="n">
-        <v>1186.236145130345</v>
+        <v>1186.236145130346</v>
       </c>
       <c r="O28" t="n">
         <v>1447.436735166878</v>
       </c>
       <c r="P28" t="n">
-        <v>1651.362111803696</v>
+        <v>1651.362111803697</v>
       </c>
       <c r="Q28" t="n">
-        <v>1717.521166806988</v>
+        <v>1717.521166806989</v>
       </c>
       <c r="R28" t="n">
-        <v>1634.326496009499</v>
+        <v>1717.521166806989</v>
       </c>
       <c r="S28" t="n">
-        <v>1634.326496009499</v>
+        <v>1717.521166806989</v>
       </c>
       <c r="T28" t="n">
-        <v>1634.326496009499</v>
+        <v>1521.61618423718</v>
       </c>
       <c r="U28" t="n">
-        <v>1634.326496009499</v>
+        <v>1445.830507289993</v>
       </c>
       <c r="V28" t="n">
-        <v>1634.326496009499</v>
+        <v>1219.026451724792</v>
       </c>
       <c r="W28" t="n">
-        <v>1372.789758613223</v>
+        <v>1219.026451724792</v>
       </c>
       <c r="X28" t="n">
-        <v>1172.680640355891</v>
+        <v>1018.91733346746</v>
       </c>
       <c r="Y28" t="n">
-        <v>979.7684938530464</v>
+        <v>826.0051869646152</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6500,7 +6500,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6549,7 +6549,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
         <v>2051.878056918008</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>458.495474030869</v>
+        <v>492.7885834809961</v>
       </c>
       <c r="C31" t="n">
-        <v>458.495474030869</v>
+        <v>492.7885834809961</v>
       </c>
       <c r="D31" t="n">
-        <v>336.2592672592186</v>
+        <v>370.5523767093458</v>
       </c>
       <c r="E31" t="n">
-        <v>216.2266063175109</v>
+        <v>356.5214953570048</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>237.5119804997799</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028587</v>
@@ -6619,16 +6619,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>136.9253959553315</v>
+        <v>136.9253959553314</v>
       </c>
       <c r="K31" t="n">
-        <v>314.4364122310787</v>
+        <v>314.4364122310786</v>
       </c>
       <c r="L31" t="n">
-        <v>589.4740692733437</v>
+        <v>589.4740692733436</v>
       </c>
       <c r="M31" t="n">
-        <v>888.3664240716622</v>
+        <v>888.3664240716621</v>
       </c>
       <c r="N31" t="n">
         <v>1186.236145130346</v>
@@ -6646,25 +6646,25 @@
         <v>1634.326496009499</v>
       </c>
       <c r="S31" t="n">
-        <v>1634.326496009499</v>
+        <v>1462.286918565737</v>
       </c>
       <c r="T31" t="n">
-        <v>1554.764651830501</v>
+        <v>1266.381935995928</v>
       </c>
       <c r="U31" t="n">
-        <v>1293.516445684745</v>
+        <v>1266.381935995928</v>
       </c>
       <c r="V31" t="n">
-        <v>1066.712390119543</v>
+        <v>1039.577880430727</v>
       </c>
       <c r="W31" t="n">
-        <v>805.1756527232681</v>
+        <v>1039.577880430727</v>
       </c>
       <c r="X31" t="n">
-        <v>805.1756527232681</v>
+        <v>839.4687621733951</v>
       </c>
       <c r="Y31" t="n">
-        <v>612.2635062204233</v>
+        <v>646.5566156705504</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,10 +6719,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6786,19 +6786,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6838,7 +6838,7 @@
         <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083202</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6914,25 +6914,25 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6959,22 +6959,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083204</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,13 +7151,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7169,16 +7169,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,37 +7187,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7309,40 +7309,40 @@
         <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7351,31 +7351,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7406,7 +7406,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7415,46 +7415,46 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1470.815640507006</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277035</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>901.6749225845924</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864554</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>136.5653954824675</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>140.1317786452013</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N3" t="n">
-        <v>361.9899941110494</v>
+        <v>246.6290002677861</v>
       </c>
       <c r="O3" t="n">
         <v>385.2788254813443</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K6" t="n">
-        <v>129.8481964236088</v>
+        <v>129.8481964236087</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>204.733533460982</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N6" t="n">
-        <v>381.7094952808119</v>
+        <v>197.5393732613982</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.663080786811</v>
+        <v>133.6630807868109</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>58.79139484272905</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>263.7648516092783</v>
+        <v>358.4978461115892</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>48.04465273585775</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>295.3773510571272</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>306.114737013996</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>398.9629823660891</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9717,25 +9717,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>159.0121003135239</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10197,10 +10197,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10434,10 +10434,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>188.88569463024</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10832,7 +10832,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>188.88569463024</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,13 +11063,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119852</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,22 +11139,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298194</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,16 +11379,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>124.3400780863221</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.5762318133096</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>125.4813783523296</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>94.54967916976655</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>153.7813469467073</v>
       </c>
       <c r="V19" t="n">
-        <v>240.2954976451159</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>14.74113413690282</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>170.2099891031804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>100.5391641186216</v>
       </c>
       <c r="I25" t="n">
-        <v>92.48817718542</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>152.2303518676588</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>118.8323343322907</v>
+        <v>118.8323343322906</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.004678048112509714</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>82.36272408951426</v>
       </c>
       <c r="S28" t="n">
-        <v>170.3191816693248</v>
+        <v>170.3191816693247</v>
       </c>
       <c r="T28" t="n">
-        <v>193.9459327441108</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>258.6357240842989</v>
+        <v>183.6079039065843</v>
       </c>
       <c r="V28" t="n">
-        <v>224.5360150095495</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>258.9213700223125</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>104.9417617934732</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>138.8919401490991</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>121.3122000532576</v>
       </c>
       <c r="I31" t="n">
-        <v>82.81761714999347</v>
+        <v>82.81761714999345</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,22 +24886,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>170.3191816693247</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>115.1797070069026</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>258.6357240842988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>258.9213700223125</v>
       </c>
       <c r="X31" t="n">
-        <v>198.1080270747586</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="C2" t="n">
+        <v>41052.08849321415</v>
+      </c>
+      <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
-      <c r="D2" t="n">
-        <v>41052.08849321419</v>
-      </c>
       <c r="E2" t="n">
-        <v>39102.90597377087</v>
+        <v>39102.90597377088</v>
       </c>
       <c r="F2" t="n">
         <v>39102.90597377088</v>
       </c>
       <c r="G2" t="n">
+        <v>39102.90597377088</v>
+      </c>
+      <c r="H2" t="n">
+        <v>39102.90597377089</v>
+      </c>
+      <c r="I2" t="n">
         <v>39102.90597377087</v>
       </c>
-      <c r="H2" t="n">
-        <v>39102.90597377086</v>
-      </c>
-      <c r="I2" t="n">
-        <v>39102.90597377086</v>
-      </c>
       <c r="J2" t="n">
-        <v>39892.5598541489</v>
+        <v>39892.55985414891</v>
       </c>
       <c r="K2" t="n">
         <v>39892.55985414892</v>
@@ -26344,13 +26344,13 @@
         <v>41052.08849321415</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="N2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321419</v>
@@ -26366,13 +26366,13 @@
         <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>23645.34018189508</v>
+        <v>23645.34018189539</v>
       </c>
       <c r="D3" t="n">
-        <v>379260.2152038459</v>
+        <v>379260.2152038448</v>
       </c>
       <c r="E3" t="n">
-        <v>574504.0947077123</v>
+        <v>574504.0947077132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,25 +26384,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86069.6741973215</v>
+        <v>86069.67419732158</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.45449175013</v>
+        <v>4807.454491750158</v>
       </c>
       <c r="L3" t="n">
-        <v>123843.5469857403</v>
+        <v>123843.5469857401</v>
       </c>
       <c r="M3" t="n">
-        <v>147219.8238432089</v>
+        <v>147219.8238432091</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22081.30265142276</v>
+        <v>22081.3026514228</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>319655.8297120242</v>
       </c>
       <c r="C4" t="n">
-        <v>312850.0144568525</v>
+        <v>312850.0144568523</v>
       </c>
       <c r="D4" t="n">
-        <v>199017.5566411968</v>
+        <v>199017.5566411971</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="J4" t="n">
+        <v>45514.79477483223</v>
+      </c>
+      <c r="K4" t="n">
         <v>45514.79477483219</v>
       </c>
-      <c r="K4" t="n">
-        <v>45514.79477483218</v>
-      </c>
       <c r="L4" t="n">
-        <v>58851.27075905442</v>
+        <v>58851.2707590544</v>
       </c>
       <c r="M4" t="n">
-        <v>58851.2707590544</v>
+        <v>58851.27075905445</v>
       </c>
       <c r="N4" t="n">
-        <v>58851.27075905439</v>
+        <v>58851.27075905443</v>
       </c>
       <c r="O4" t="n">
         <v>58851.27075905442</v>
       </c>
       <c r="P4" t="n">
-        <v>58851.27075905437</v>
+        <v>58851.27075905443</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="D5" t="n">
-        <v>78893.99020501086</v>
+        <v>78893.99020501079</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>94307.7672394697</v>
+        <v>94307.76723946971</v>
       </c>
       <c r="K5" t="n">
-        <v>94307.76723946971</v>
+        <v>94307.76723946973</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,43 +26522,43 @@
         <v>-412679.6241586492</v>
       </c>
       <c r="C6" t="n">
-        <v>-345577.6735523667</v>
+        <v>-345577.673552367</v>
       </c>
       <c r="D6" t="n">
-        <v>-616119.6735568393</v>
+        <v>-616119.6735568385</v>
       </c>
       <c r="E6" t="n">
-        <v>-663820.998200392</v>
+        <v>-663918.4573263651</v>
       </c>
       <c r="F6" t="n">
-        <v>-89316.9034926797</v>
+        <v>-89414.36261865187</v>
       </c>
       <c r="G6" t="n">
-        <v>-89316.9034926797</v>
+        <v>-89414.36261865187</v>
       </c>
       <c r="H6" t="n">
-        <v>-89316.90349267972</v>
+        <v>-89414.36261865187</v>
       </c>
       <c r="I6" t="n">
-        <v>-89316.90349267973</v>
+        <v>-89414.36261865187</v>
       </c>
       <c r="J6" t="n">
-        <v>-185999.6763574745</v>
+        <v>-186057.6527894279</v>
       </c>
       <c r="K6" t="n">
-        <v>-104737.4566519031</v>
+        <v>-104795.4330838564</v>
       </c>
       <c r="L6" t="n">
-        <v>-239357.835071606</v>
+        <v>-239357.8350716057</v>
       </c>
       <c r="M6" t="n">
-        <v>-262734.1119290745</v>
+        <v>-262734.1119290747</v>
       </c>
       <c r="N6" t="n">
-        <v>-115514.2880858656</v>
+        <v>-115514.2880858657</v>
       </c>
       <c r="O6" t="n">
-        <v>-137595.5907372884</v>
+        <v>-137595.5907372885</v>
       </c>
       <c r="P6" t="n">
         <v>-115514.2880858656</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="K2" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="D3" t="n">
-        <v>334.8452055771501</v>
+        <v>334.8452055771494</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="D4" t="n">
-        <v>624.4533671616609</v>
+        <v>624.4533671616601</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,25 +26926,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40.53026181536212</v>
+        <v>40.5302618153621</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427845</v>
+        <v>27.6016283142785</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>19.33951979354706</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="D3" t="n">
-        <v>311.8318228903607</v>
+        <v>311.8318228903598</v>
       </c>
       <c r="E3" t="n">
-        <v>495.5371998769501</v>
+        <v>495.5371998769509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>18.67930159052418</v>
+        <v>18.67930159052446</v>
       </c>
       <c r="D4" t="n">
-        <v>361.2113332099943</v>
+        <v>361.2113332099933</v>
       </c>
       <c r="E4" t="n">
-        <v>590.7602760919121</v>
+        <v>590.7602760919132</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
-        <v>18.6793015905244</v>
+        <v>18.67930159052469</v>
       </c>
       <c r="L4" t="n">
-        <v>361.2113332099941</v>
+        <v>361.2113332099933</v>
       </c>
       <c r="M4" t="n">
-        <v>590.7602760919124</v>
+        <v>590.7602760919129</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.60162831427843</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052418</v>
+        <v>18.67930159052446</v>
       </c>
       <c r="L4" t="n">
-        <v>361.2113332099943</v>
+        <v>361.2113332099933</v>
       </c>
       <c r="M4" t="n">
-        <v>590.7602760919121</v>
+        <v>590.7602760919132</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>335.9883764023953</v>
       </c>
       <c r="C2" t="n">
-        <v>120.7101594098651</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>170.7252358559293</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3235460419765</v>
+        <v>94.7608136808341</v>
       </c>
       <c r="I2" t="n">
         <v>209.9064962068211</v>
@@ -27421,16 +27421,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>159.785834949441</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3444713639914</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>104.6782363562706</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>125.1683683173266</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,22 +27461,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1057738310450986</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>52.64810051192396</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27555,7 +27555,7 @@
         <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>18.16967748427757</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
         <v>92.89079271141465</v>
@@ -27588,7 +27588,7 @@
         <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9172826158254</v>
+        <v>90.83571695072735</v>
       </c>
       <c r="U4" t="n">
         <v>286.3186679929276</v>
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>102.0308578193407</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901607</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>308.403974197764</v>
       </c>
       <c r="F5" t="n">
-        <v>143.6340117900448</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.52915398937584</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703756</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S6" t="n">
         <v>170.7637213332854</v>
@@ -27752,7 +27752,7 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>177.0758587802837</v>
+        <v>192.1392773131975</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27792,13 +27792,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022108</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839144</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871616</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R7" t="n">
-        <v>98.2793743957106</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
         <v>223.2933741908973</v>
@@ -27831,7 +27831,7 @@
         <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>92.30257421685278</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>325.6889389534878</v>
       </c>
       <c r="I8" t="n">
-        <v>158.5799306236196</v>
+        <v>158.5799306236198</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.3114490171874</v>
       </c>
       <c r="S8" t="n">
-        <v>178.34555653262</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.2032470016631</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2379639975001</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>71.66127478380889</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.417535191097</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27980,10 +27980,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>8.114952620279922</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>197.2616839408084</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.3766365610915</v>
       </c>
     </row>
     <row r="10">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>3.727694770255681</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3871601352868</v>
       </c>
       <c r="H10" t="n">
-        <v>156.8586706868748</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>137.2919841067794</v>
       </c>
       <c r="J10" t="n">
-        <v>50.66916103841875</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.60041720954472</v>
+        <v>35.60041720954482</v>
       </c>
       <c r="R10" t="n">
-        <v>150.1434833970943</v>
+        <v>150.1434833970944</v>
       </c>
       <c r="S10" t="n">
         <v>213.4936757567854</v>
@@ -28065,13 +28065,13 @@
         <v>225.3656345656379</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2860937624997</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>176.3473138083003</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="C28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="D28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="E28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="F28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="G28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="H28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="I28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="J28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="K28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="L28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="M28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="N28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="O28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="P28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="R28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="S28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="T28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="U28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="V28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="W28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="X28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="Y28" t="n">
-        <v>27.60162831427845</v>
+        <v>27.60162831427853</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="C31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="D31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="E31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="F31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="G31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="H31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="I31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="J31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="K31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="L31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="M31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="N31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="O31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="P31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="R31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="S31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="T31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="U31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="V31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="W31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="X31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.60162831427851</v>
+        <v>27.60162831427853</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367583</v>
+        <v>0.09251611130367679</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887704</v>
+        <v>0.9474806248887802</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034966</v>
+        <v>3.566727381035003</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760364</v>
+        <v>7.852189301760445</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324496</v>
+        <v>11.76839629324509</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455484</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895158</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019315</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841722</v>
+        <v>15.58792394841739</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060773</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544831</v>
+        <v>9.990699214544934</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679532</v>
+        <v>5.811515176679593</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332515</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318412</v>
+        <v>0.4049892772318454</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.007401288904294142</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104738</v>
+        <v>0.4780704592104788</v>
       </c>
       <c r="I6" t="n">
-        <v>1.70429296312544</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246511</v>
+        <v>4.67671015524656</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750233</v>
+        <v>7.993242550750316</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688215</v>
+        <v>10.74790103688227</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430021</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418796</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104022</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277522983</v>
+        <v>9.452421277523081</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210549</v>
+        <v>6.318693299210614</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605572</v>
+        <v>3.073372125605604</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523865</v>
+        <v>0.919449770552396</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467871</v>
+        <v>0.1995216857467892</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.04149954254994849</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259021</v>
+        <v>0.3689686601259059</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047529</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281328</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166691</v>
+        <v>4.821492307166742</v>
       </c>
       <c r="L7" t="n">
-        <v>6.16985017147137</v>
+        <v>6.169850171471434</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988675</v>
+        <v>6.505241928988743</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847965</v>
+        <v>6.350561815848031</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150842</v>
+        <v>5.865771705150904</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131898</v>
+        <v>5.01918103713195</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705196</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473119</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750037</v>
+        <v>0.7232238460750111</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588689</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.002263611411815375</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.346111379204622</v>
+        <v>1.34611137920462</v>
       </c>
       <c r="H8" t="n">
-        <v>13.78586316227934</v>
+        <v>13.78586316227932</v>
       </c>
       <c r="I8" t="n">
-        <v>51.89595894678625</v>
+        <v>51.89595894678616</v>
       </c>
       <c r="J8" t="n">
-        <v>114.2495206707684</v>
+        <v>114.2495206707682</v>
       </c>
       <c r="K8" t="n">
-        <v>171.2304153525001</v>
+        <v>171.2304153524998</v>
       </c>
       <c r="L8" t="n">
-        <v>212.4264714738336</v>
+        <v>212.4264714738332</v>
       </c>
       <c r="M8" t="n">
-        <v>236.3653797137638</v>
+        <v>236.3653797137634</v>
       </c>
       <c r="N8" t="n">
-        <v>240.190018669929</v>
+        <v>240.1900186699285</v>
       </c>
       <c r="O8" t="n">
-        <v>226.804623642963</v>
+        <v>226.8046236429626</v>
       </c>
       <c r="P8" t="n">
-        <v>193.5724989688489</v>
+        <v>193.5724989688485</v>
       </c>
       <c r="Q8" t="n">
-        <v>145.3648852010833</v>
+        <v>145.364885201083</v>
       </c>
       <c r="R8" t="n">
-        <v>84.55766892396244</v>
+        <v>84.55766892396228</v>
       </c>
       <c r="S8" t="n">
-        <v>30.67451305362536</v>
+        <v>30.6745130536253</v>
       </c>
       <c r="T8" t="n">
-        <v>5.892602562468237</v>
+        <v>5.892602562468227</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1076889103363698</v>
+        <v>0.1076889103363696</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7202330836942473</v>
+        <v>0.720233083694246</v>
       </c>
       <c r="H9" t="n">
-        <v>6.955935308310232</v>
+        <v>6.955935308310219</v>
       </c>
       <c r="I9" t="n">
-        <v>24.79749871491159</v>
+        <v>24.79749871491154</v>
       </c>
       <c r="J9" t="n">
-        <v>68.04623182393765</v>
+        <v>68.04623182393752</v>
       </c>
       <c r="K9" t="n">
-        <v>116.3018484314522</v>
+        <v>116.301848431452</v>
       </c>
       <c r="L9" t="n">
-        <v>156.3821877556303</v>
+        <v>156.38218775563</v>
       </c>
       <c r="M9" t="n">
-        <v>182.4906370395468</v>
+        <v>182.4906370395464</v>
       </c>
       <c r="N9" t="n">
-        <v>187.3206211841455</v>
+        <v>187.3206211841452</v>
       </c>
       <c r="O9" t="n">
-        <v>171.3617723296572</v>
+        <v>171.3617723296568</v>
       </c>
       <c r="P9" t="n">
-        <v>137.5329298152638</v>
+        <v>137.5329298152635</v>
       </c>
       <c r="Q9" t="n">
-        <v>91.93712135016393</v>
+        <v>91.93712135016376</v>
       </c>
       <c r="R9" t="n">
-        <v>44.71762952971829</v>
+        <v>44.7176295297182</v>
       </c>
       <c r="S9" t="n">
-        <v>13.37801363791726</v>
+        <v>13.37801363791724</v>
       </c>
       <c r="T9" t="n">
-        <v>2.903044754013215</v>
+        <v>2.90304475401321</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0473837555062005</v>
+        <v>0.04738375550620041</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6038192231719098</v>
+        <v>0.6038192231719087</v>
       </c>
       <c r="H10" t="n">
-        <v>5.368501820564803</v>
+        <v>5.368501820564793</v>
       </c>
       <c r="I10" t="n">
-        <v>18.1584908204789</v>
+        <v>18.15849082047886</v>
       </c>
       <c r="J10" t="n">
-        <v>42.69001907825402</v>
+        <v>42.69001907825395</v>
       </c>
       <c r="K10" t="n">
-        <v>70.15281520124552</v>
+        <v>70.15281520124539</v>
       </c>
       <c r="L10" t="n">
-        <v>89.77145068866741</v>
+        <v>89.77145068866726</v>
       </c>
       <c r="M10" t="n">
-        <v>94.65140786502947</v>
+        <v>94.65140786502928</v>
       </c>
       <c r="N10" t="n">
-        <v>92.40080894229787</v>
+        <v>92.4008089422977</v>
       </c>
       <c r="O10" t="n">
-        <v>85.34710256251689</v>
+        <v>85.34710256251674</v>
       </c>
       <c r="P10" t="n">
-        <v>73.02919040980987</v>
+        <v>73.02919040980974</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.56162604214966</v>
+        <v>50.56162604214956</v>
       </c>
       <c r="R10" t="n">
-        <v>27.14990798007514</v>
+        <v>27.14990798007509</v>
       </c>
       <c r="S10" t="n">
-        <v>10.52292228018683</v>
+        <v>10.52292228018681</v>
       </c>
       <c r="T10" t="n">
-        <v>2.579954862643614</v>
+        <v>2.57995486264361</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03293559399119513</v>
+        <v>0.03293559399119506</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,37 +34369,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
         <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>232.703531043814</v>
+        <v>117.3425372005507</v>
       </c>
       <c r="O3" t="n">
         <v>244.5627323611424</v>
       </c>
       <c r="P3" t="n">
-        <v>185.9973484203803</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>71.10423162760989</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194292</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L5" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O5" t="n">
-        <v>166.2898937894759</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P5" t="n">
-        <v>103.8696448668208</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604671</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M6" t="n">
-        <v>75.14179310326388</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N6" t="n">
-        <v>263.2420339516666</v>
+        <v>79.07191193225303</v>
       </c>
       <c r="O6" t="n">
-        <v>263.0434990833253</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P6" t="n">
-        <v>193.9407825031299</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178751</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082926</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507656</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919052</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025386</v>
+        <v>2.297740302025438</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>102.3002313161559</v>
+        <v>102.3002313161557</v>
       </c>
       <c r="K8" t="n">
-        <v>275.2859768786843</v>
+        <v>275.285976878684</v>
       </c>
       <c r="L8" t="n">
-        <v>394.3212710542969</v>
+        <v>394.3212710542964</v>
       </c>
       <c r="M8" t="n">
-        <v>455.5326799793236</v>
+        <v>455.5326799793231</v>
       </c>
       <c r="N8" t="n">
-        <v>448.1238794853222</v>
+        <v>448.1238794853218</v>
       </c>
       <c r="O8" t="n">
-        <v>377.5065934840216</v>
+        <v>377.5065934840212</v>
       </c>
       <c r="P8" t="n">
-        <v>284.1382113850619</v>
+        <v>284.1382113850616</v>
       </c>
       <c r="Q8" t="n">
-        <v>135.3741859865385</v>
+        <v>135.3741859865382</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>67.29964049767966</v>
       </c>
       <c r="K9" t="n">
-        <v>242.9256464696718</v>
+        <v>242.9256464696716</v>
       </c>
       <c r="L9" t="n">
-        <v>281.5926595850344</v>
+        <v>376.325654087345</v>
       </c>
       <c r="M9" t="n">
-        <v>506.0616668675283</v>
+        <v>506.061666867528</v>
       </c>
       <c r="N9" t="n">
-        <v>535.3212834443657</v>
+        <v>535.3212834443653</v>
       </c>
       <c r="O9" t="n">
-        <v>422.6278471619422</v>
+        <v>422.6278471619419</v>
       </c>
       <c r="P9" t="n">
-        <v>322.0212910408707</v>
+        <v>322.0212910408704</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.0326349999915</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>47.88332337536266</v>
+        <v>47.88332337536254</v>
       </c>
       <c r="L10" t="n">
-        <v>117.3614759489836</v>
+        <v>117.3614759489834</v>
       </c>
       <c r="M10" t="n">
-        <v>134.23528482687</v>
+        <v>134.2352848268699</v>
       </c>
       <c r="N10" t="n">
-        <v>136.5329813215264</v>
+        <v>136.5329813215263</v>
       </c>
       <c r="O10" t="n">
-        <v>109.9322304765566</v>
+        <v>109.9322304765564</v>
       </c>
       <c r="P10" t="n">
-        <v>70.30774967470336</v>
+        <v>70.30774967470323</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>544.6350560131515</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R17" t="n">
         <v>59.8253897034981</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3724419700203</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -36127,7 +36127,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>709.3873594165555</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36437,25 +36437,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>326.2624260966948</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>309.5875389014632</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>40.10939847984399</v>
+        <v>40.10939847984406</v>
       </c>
       <c r="K28" t="n">
-        <v>179.304056844189</v>
+        <v>179.3040568441891</v>
       </c>
       <c r="L28" t="n">
-        <v>277.815815194207</v>
+        <v>277.8158151942071</v>
       </c>
       <c r="M28" t="n">
         <v>301.911469493251</v>
       </c>
       <c r="N28" t="n">
-        <v>300.8785061198821</v>
+        <v>300.8785061198822</v>
       </c>
       <c r="O28" t="n">
-        <v>263.8389798348813</v>
+        <v>263.8389798348814</v>
       </c>
       <c r="P28" t="n">
-        <v>205.9852289260792</v>
+        <v>205.9852289260793</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.82732828615322</v>
+        <v>66.82732828615329</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.10939847984405</v>
+        <v>40.10939847984406</v>
       </c>
       <c r="K31" t="n">
         <v>179.3040568441891</v>
@@ -37008,7 +37008,7 @@
         <v>205.9852289260793</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.82732828615327</v>
+        <v>66.82732828615329</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>499.3100716807064</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
@@ -37166,10 +37166,10 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415665</v>
@@ -37403,7 +37403,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37552,7 +37552,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>499.3100716807064</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37783,13 +37783,13 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37859,22 +37859,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>457.5346514843351</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
